--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/3.0 careerorglink_1_Jacob_resolve_JR.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/3.0 careerorglink_1_Jacob_resolve_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D15FE-94BD-4A2B-91E8-04CC6C97942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5A7E2-E499-41D2-9ABF-85B4092BE607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2355,7 +2355,7 @@
   <dimension ref="A1:G669"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+      <selection activeCell="B539" sqref="B539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="17"/>
@@ -9981,7 +9981,7 @@
         <v>205</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="539" spans="1:7">
